--- a/Code/Results/Cases/Case_0_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001257547477877</v>
+        <v>1.030533058377069</v>
       </c>
       <c r="D2">
-        <v>1.009621278060453</v>
+        <v>1.033177462681259</v>
       </c>
       <c r="E2">
-        <v>1.015965310173153</v>
+        <v>1.039552098467655</v>
       </c>
       <c r="F2">
-        <v>1.023147428036874</v>
+        <v>1.048896942223943</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049118590992318</v>
+        <v>1.03499182437724</v>
       </c>
       <c r="J2">
-        <v>1.023400710464006</v>
+        <v>1.035673778774571</v>
       </c>
       <c r="K2">
-        <v>1.020948180987123</v>
+        <v>1.035980562479287</v>
       </c>
       <c r="L2">
-        <v>1.027206614959895</v>
+        <v>1.04233696238428</v>
       </c>
       <c r="M2">
-        <v>1.034293433082717</v>
+        <v>1.051655507976379</v>
       </c>
       <c r="N2">
-        <v>1.011747415635109</v>
+        <v>1.015890573910723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0055758020954</v>
+        <v>1.031439371046339</v>
       </c>
       <c r="D3">
-        <v>1.013301898151193</v>
+        <v>1.033997276968464</v>
       </c>
       <c r="E3">
-        <v>1.019592934231101</v>
+        <v>1.040365164007232</v>
       </c>
       <c r="F3">
-        <v>1.027234455221102</v>
+        <v>1.049814137186467</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050251927691875</v>
+        <v>1.035137131015873</v>
       </c>
       <c r="J3">
-        <v>1.025915610673447</v>
+        <v>1.036221805680694</v>
       </c>
       <c r="K3">
-        <v>1.023767361442724</v>
+        <v>1.036609273748202</v>
       </c>
       <c r="L3">
-        <v>1.029981110356941</v>
+        <v>1.04296026241975</v>
       </c>
       <c r="M3">
-        <v>1.03753033279639</v>
+        <v>1.052384568828572</v>
       </c>
       <c r="N3">
-        <v>1.01258377932722</v>
+        <v>1.016072226417863</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008312553699303</v>
+        <v>1.032025990599636</v>
       </c>
       <c r="D4">
-        <v>1.015639259609889</v>
+        <v>1.034528191861656</v>
       </c>
       <c r="E4">
-        <v>1.02189759504213</v>
+        <v>1.040891795683374</v>
       </c>
       <c r="F4">
-        <v>1.029829834436209</v>
+        <v>1.050408131394257</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050954506773045</v>
+        <v>1.035229228095921</v>
       </c>
       <c r="J4">
-        <v>1.02750598745521</v>
+        <v>1.036575967501031</v>
       </c>
       <c r="K4">
-        <v>1.025552526862666</v>
+        <v>1.037015884318485</v>
       </c>
       <c r="L4">
-        <v>1.031738728075438</v>
+        <v>1.043363452152952</v>
       </c>
       <c r="M4">
-        <v>1.039581091488906</v>
+        <v>1.052856197274178</v>
       </c>
       <c r="N4">
-        <v>1.013112634798283</v>
+        <v>1.01618959623993</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009449791168742</v>
+        <v>1.032272646116427</v>
       </c>
       <c r="D5">
-        <v>1.016611628988698</v>
+        <v>1.034751492394125</v>
       </c>
       <c r="E5">
-        <v>1.022856586969876</v>
+        <v>1.041113315578746</v>
       </c>
       <c r="F5">
-        <v>1.030909530872621</v>
+        <v>1.050657966569928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051242638831943</v>
+        <v>1.035267483822197</v>
       </c>
       <c r="J5">
-        <v>1.028165988580749</v>
+        <v>1.036724748730428</v>
       </c>
       <c r="K5">
-        <v>1.026293936818568</v>
+        <v>1.037186772472768</v>
       </c>
       <c r="L5">
-        <v>1.032468876194249</v>
+        <v>1.043532921497644</v>
       </c>
       <c r="M5">
-        <v>1.040433068040099</v>
+        <v>1.053054439135875</v>
       </c>
       <c r="N5">
-        <v>1.013332095180221</v>
+        <v>1.016238897064019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009639971804473</v>
+        <v>1.032314063013525</v>
       </c>
       <c r="D6">
-        <v>1.016774302040041</v>
+        <v>1.034788991586366</v>
       </c>
       <c r="E6">
-        <v>1.023017035269498</v>
+        <v>1.041150516968472</v>
       </c>
       <c r="F6">
-        <v>1.031090158748877</v>
+        <v>1.050699921987806</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051290597112835</v>
+        <v>1.035273880018659</v>
       </c>
       <c r="J6">
-        <v>1.028276308753796</v>
+        <v>1.036749723365059</v>
       </c>
       <c r="K6">
-        <v>1.026417898368024</v>
+        <v>1.037215462323875</v>
       </c>
       <c r="L6">
-        <v>1.032590965328622</v>
+        <v>1.043561374257221</v>
       </c>
       <c r="M6">
-        <v>1.040575531379479</v>
+        <v>1.053087722974472</v>
       </c>
       <c r="N6">
-        <v>1.013368777495598</v>
+        <v>1.016247172447281</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008327801160528</v>
+        <v>1.032029286264422</v>
       </c>
       <c r="D7">
-        <v>1.015652292328591</v>
+        <v>1.034531175207868</v>
       </c>
       <c r="E7">
-        <v>1.021910447571413</v>
+        <v>1.040894755157938</v>
       </c>
       <c r="F7">
-        <v>1.029844305702924</v>
+        <v>1.050411469234487</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050958385053347</v>
+        <v>1.035229741086705</v>
       </c>
       <c r="J7">
-        <v>1.027514839867669</v>
+        <v>1.036577955950416</v>
       </c>
       <c r="K7">
-        <v>1.025562468921853</v>
+        <v>1.037018167936018</v>
       </c>
       <c r="L7">
-        <v>1.031748518409288</v>
+        <v>1.043365716736384</v>
       </c>
       <c r="M7">
-        <v>1.039592515175897</v>
+        <v>1.052858846314138</v>
       </c>
       <c r="N7">
-        <v>1.013115578413206</v>
+        <v>1.016190255163317</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002729101208095</v>
+        <v>1.030839314129932</v>
       </c>
       <c r="D8">
-        <v>1.010874529168914</v>
+        <v>1.033454430716942</v>
       </c>
       <c r="E8">
-        <v>1.017200314662014</v>
+        <v>1.039826768404568</v>
       </c>
       <c r="F8">
-        <v>1.024539078531871</v>
+        <v>1.049206806500044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049508060104943</v>
+        <v>1.035041329760232</v>
       </c>
       <c r="J8">
-        <v>1.024258433149879</v>
+        <v>1.035859079188069</v>
       </c>
       <c r="K8">
-        <v>1.021909185606548</v>
+        <v>1.036193080665029</v>
       </c>
       <c r="L8">
-        <v>1.028152230184933</v>
+        <v>1.042547635140754</v>
       </c>
       <c r="M8">
-        <v>1.035396603124896</v>
+        <v>1.051901922085161</v>
       </c>
       <c r="N8">
-        <v>1.012032671157192</v>
+        <v>1.015951999500154</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9924016179880826</v>
+        <v>1.028743819555473</v>
       </c>
       <c r="D9">
-        <v>1.002100736179325</v>
+        <v>1.031560506066065</v>
       </c>
       <c r="E9">
-        <v>1.008558413877988</v>
+        <v>1.037948917060328</v>
       </c>
       <c r="F9">
-        <v>1.014795861010148</v>
+        <v>1.047087993282998</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046710414942011</v>
+        <v>1.034694608406145</v>
       </c>
       <c r="J9">
-        <v>1.018225577776955</v>
+        <v>1.034588941468503</v>
       </c>
       <c r="K9">
-        <v>1.015159822104795</v>
+        <v>1.034737634382217</v>
       </c>
       <c r="L9">
-        <v>1.021514146264091</v>
+        <v>1.041105150299586</v>
       </c>
       <c r="M9">
-        <v>1.027653361607215</v>
+        <v>1.050214819844749</v>
       </c>
       <c r="N9">
-        <v>1.010026192391165</v>
+        <v>1.015530866348143</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.98517356839639</v>
+        <v>1.027347823444923</v>
       </c>
       <c r="D10">
-        <v>0.9959894487566333</v>
+        <v>1.030300286966599</v>
       </c>
       <c r="E10">
-        <v>1.002544405113509</v>
+        <v>1.036699844863769</v>
       </c>
       <c r="F10">
-        <v>1.008008430626535</v>
+        <v>1.045678201370149</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044673121908635</v>
+        <v>1.034453612145942</v>
       </c>
       <c r="J10">
-        <v>1.013988037217072</v>
+        <v>1.033739970713905</v>
       </c>
       <c r="K10">
-        <v>1.010431494478591</v>
+        <v>1.0337663743173</v>
       </c>
       <c r="L10">
-        <v>1.016867871005319</v>
+        <v>1.040142944837058</v>
       </c>
       <c r="M10">
-        <v>1.022234580334338</v>
+        <v>1.049089573552109</v>
       </c>
       <c r="N10">
-        <v>1.008616766190506</v>
+        <v>1.015249262316032</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9819545043509802</v>
+        <v>1.026743592553172</v>
       </c>
       <c r="D11">
-        <v>0.9932753506830408</v>
+        <v>1.029755184755504</v>
       </c>
       <c r="E11">
-        <v>0.9998748435636156</v>
+        <v>1.036159671797509</v>
       </c>
       <c r="F11">
-        <v>1.004993753338963</v>
+        <v>1.045068416853244</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043747803079581</v>
+        <v>1.034346931551301</v>
       </c>
       <c r="J11">
-        <v>1.012097755097075</v>
+        <v>1.033371845387852</v>
       </c>
       <c r="K11">
-        <v>1.008325208141529</v>
+        <v>1.033345594321972</v>
       </c>
       <c r="L11">
-        <v>1.014799120537674</v>
+        <v>1.039726183523834</v>
       </c>
       <c r="M11">
-        <v>1.019822105274997</v>
+        <v>1.04860222465575</v>
       </c>
       <c r="N11">
-        <v>1.007988065601864</v>
+        <v>1.015127128119609</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9807446650931786</v>
+        <v>1.026519192085759</v>
       </c>
       <c r="D12">
-        <v>0.9922564966427524</v>
+        <v>1.029552798223707</v>
       </c>
       <c r="E12">
-        <v>0.9988729132986693</v>
+        <v>1.035959131574905</v>
       </c>
       <c r="F12">
-        <v>1.003862012328224</v>
+        <v>1.044842017056614</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043397402010094</v>
+        <v>1.034306956643097</v>
       </c>
       <c r="J12">
-        <v>1.011386908269016</v>
+        <v>1.033235030836616</v>
       </c>
       <c r="K12">
-        <v>1.00753356897872</v>
+        <v>1.033189266289808</v>
       </c>
       <c r="L12">
-        <v>1.014021738413573</v>
+        <v>1.03957136291829</v>
       </c>
       <c r="M12">
-        <v>1.01891559442979</v>
+        <v>1.048421186363309</v>
       </c>
       <c r="N12">
-        <v>1.007751645627476</v>
+        <v>1.015081732693887</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.981004831555735</v>
+        <v>1.026567325021118</v>
       </c>
       <c r="D13">
-        <v>0.9924755380049781</v>
+        <v>1.029596206785262</v>
       </c>
       <c r="E13">
-        <v>0.9990883069077248</v>
+        <v>1.036002143399561</v>
       </c>
       <c r="F13">
-        <v>1.00410532547776</v>
+        <v>1.044890575972989</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043472870831832</v>
+        <v>1.034315547177522</v>
       </c>
       <c r="J13">
-        <v>1.011539788090459</v>
+        <v>1.033264381463915</v>
       </c>
       <c r="K13">
-        <v>1.007703804890895</v>
+        <v>1.033222800595355</v>
       </c>
       <c r="L13">
-        <v>1.014188901687743</v>
+        <v>1.039604573210267</v>
       </c>
       <c r="M13">
-        <v>1.019110523199309</v>
+        <v>1.0484600203594</v>
       </c>
       <c r="N13">
-        <v>1.007802491539476</v>
+        <v>1.015091471488917</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9818547913827799</v>
+        <v>1.026725042763662</v>
       </c>
       <c r="D14">
-        <v>0.9931913536485329</v>
+        <v>1.02973845360403</v>
       </c>
       <c r="E14">
-        <v>0.9997922375724801</v>
+        <v>1.036143092948199</v>
       </c>
       <c r="F14">
-        <v>1.004900450692884</v>
+        <v>1.045049700500018</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043718976704207</v>
+        <v>1.034343634328004</v>
       </c>
       <c r="J14">
-        <v>1.012039176337302</v>
+        <v>1.033360537807332</v>
       </c>
       <c r="K14">
-        <v>1.008259962666977</v>
+        <v>1.033332672836245</v>
       </c>
       <c r="L14">
-        <v>1.014735047058612</v>
+        <v>1.039713386342463</v>
       </c>
       <c r="M14">
-        <v>1.019747388049221</v>
+        <v>1.04858726027694</v>
       </c>
       <c r="N14">
-        <v>1.007968582823935</v>
+        <v>1.015123376316103</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9823765840973468</v>
+        <v>1.026822222908566</v>
       </c>
       <c r="D15">
-        <v>0.9936309550131853</v>
+        <v>1.029826108359675</v>
       </c>
       <c r="E15">
-        <v>1.000224567254942</v>
+        <v>1.036229950454602</v>
       </c>
       <c r="F15">
-        <v>1.005388751149486</v>
+        <v>1.045147755842914</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043869716705033</v>
+        <v>1.034360893525722</v>
       </c>
       <c r="J15">
-        <v>1.01234569943618</v>
+        <v>1.033419772808767</v>
       </c>
       <c r="K15">
-        <v>1.008601388241525</v>
+        <v>1.033400364595992</v>
       </c>
       <c r="L15">
-        <v>1.015070345748164</v>
+        <v>1.039780427499164</v>
       </c>
       <c r="M15">
-        <v>1.020138387204507</v>
+        <v>1.048665655012111</v>
       </c>
       <c r="N15">
-        <v>1.00807052991537</v>
+        <v>1.015143030055351</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9853852656050049</v>
+        <v>1.027387929501834</v>
       </c>
       <c r="D16">
-        <v>0.9961681009136454</v>
+        <v>1.030336475966487</v>
       </c>
       <c r="E16">
-        <v>1.002720153916094</v>
+        <v>1.036735708892294</v>
       </c>
       <c r="F16">
-        <v>1.008206861271625</v>
+        <v>1.045718684889322</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04473360518219</v>
+        <v>1.034460643206346</v>
       </c>
       <c r="J16">
-        <v>1.014112289225932</v>
+        <v>1.033764391207674</v>
       </c>
       <c r="K16">
-        <v>1.010570005554887</v>
+        <v>1.033794295604828</v>
       </c>
       <c r="L16">
-        <v>1.017003934320217</v>
+        <v>1.040170601481249</v>
       </c>
       <c r="M16">
-        <v>1.022393255446705</v>
+        <v>1.049121915089373</v>
       </c>
       <c r="N16">
-        <v>1.008658092482051</v>
+        <v>1.01525736382468</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9872481362805732</v>
+        <v>1.027742848529539</v>
       </c>
       <c r="D17">
-        <v>0.9977410579386468</v>
+        <v>1.03065677262671</v>
       </c>
       <c r="E17">
-        <v>1.00426770070872</v>
+        <v>1.037053141782681</v>
       </c>
       <c r="F17">
-        <v>1.009953924981966</v>
+        <v>1.046076992585143</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045263799593638</v>
+        <v>1.034522590880178</v>
       </c>
       <c r="J17">
-        <v>1.015205326038169</v>
+        <v>1.033980423960027</v>
       </c>
       <c r="K17">
-        <v>1.011788810860091</v>
+        <v>1.034041340567994</v>
       </c>
       <c r="L17">
-        <v>1.018201313174544</v>
+        <v>1.040415315984741</v>
       </c>
       <c r="M17">
-        <v>1.023789648119349</v>
+        <v>1.049408086488185</v>
       </c>
       <c r="N17">
-        <v>1.009021639324901</v>
+        <v>1.015329029683874</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9883261553249585</v>
+        <v>1.027949890328177</v>
       </c>
       <c r="D18">
-        <v>0.9986520255794549</v>
+        <v>1.030843652210705</v>
       </c>
       <c r="E18">
-        <v>1.005164078624943</v>
+        <v>1.03723836086353</v>
       </c>
       <c r="F18">
-        <v>1.010965697723536</v>
+        <v>1.046286051436668</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045568904063535</v>
+        <v>1.034558499280747</v>
       </c>
       <c r="J18">
-        <v>1.015837558317529</v>
+        <v>1.034106382414192</v>
       </c>
       <c r="K18">
-        <v>1.012494067454524</v>
+        <v>1.034185416607315</v>
       </c>
       <c r="L18">
-        <v>1.01889426476088</v>
+        <v>1.0405580421607</v>
       </c>
       <c r="M18">
-        <v>1.024597795917386</v>
+        <v>1.049574994740818</v>
       </c>
       <c r="N18">
-        <v>1.009231922774321</v>
+        <v>1.015370812058325</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9886923008778449</v>
+        <v>1.028020490191413</v>
       </c>
       <c r="D19">
-        <v>0.9989615527724282</v>
+        <v>1.030907382768284</v>
       </c>
       <c r="E19">
-        <v>1.005468669857644</v>
+        <v>1.037301526908825</v>
       </c>
       <c r="F19">
-        <v>1.011309471842393</v>
+        <v>1.046357345919299</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045672239284093</v>
+        <v>1.034570704994534</v>
       </c>
       <c r="J19">
-        <v>1.016052242611093</v>
+        <v>1.034149322514861</v>
       </c>
       <c r="K19">
-        <v>1.012733595455639</v>
+        <v>1.034234539198363</v>
       </c>
       <c r="L19">
-        <v>1.019129629373209</v>
+        <v>1.040606706087188</v>
       </c>
       <c r="M19">
-        <v>1.024872291318917</v>
+        <v>1.049631904290478</v>
       </c>
       <c r="N19">
-        <v>1.009303327945807</v>
+        <v>1.015385055515841</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9870491585559421</v>
+        <v>1.027704766634964</v>
       </c>
       <c r="D20">
-        <v>0.9975729717115679</v>
+        <v>1.030622402027748</v>
       </c>
       <c r="E20">
-        <v>1.004102316672931</v>
+        <v>1.037019077416551</v>
       </c>
       <c r="F20">
-        <v>1.009767236626411</v>
+        <v>1.04603854292636</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04520734538732</v>
+        <v>1.034515967710339</v>
       </c>
       <c r="J20">
-        <v>1.01508860628393</v>
+        <v>1.033957250833392</v>
       </c>
       <c r="K20">
-        <v>1.011658632158746</v>
+        <v>1.03401483715647</v>
       </c>
       <c r="L20">
-        <v>1.018073413307736</v>
+        <v>1.040389061631661</v>
       </c>
       <c r="M20">
-        <v>1.023640487990846</v>
+        <v>1.049377384101008</v>
       </c>
       <c r="N20">
-        <v>1.008982817875411</v>
+        <v>1.01532134258925</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9816048956724351</v>
+        <v>1.02667859776802</v>
       </c>
       <c r="D21">
-        <v>0.9929808639826155</v>
+        <v>1.029696563001414</v>
       </c>
       <c r="E21">
-        <v>0.9995852370676794</v>
+        <v>1.036101583933947</v>
       </c>
       <c r="F21">
-        <v>1.004666641073571</v>
+        <v>1.045002839484133</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043646691294404</v>
+        <v>1.034335372990238</v>
       </c>
       <c r="J21">
-        <v>1.011892362690953</v>
+        <v>1.033332224262095</v>
       </c>
       <c r="K21">
-        <v>1.008096447520524</v>
+        <v>1.033300319063144</v>
       </c>
       <c r="L21">
-        <v>1.014574471522907</v>
+        <v>1.039681344044519</v>
       </c>
       <c r="M21">
-        <v>1.019560138599009</v>
+        <v>1.048549791702239</v>
       </c>
       <c r="N21">
-        <v>1.007919753990786</v>
+        <v>1.015113981946873</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9780996919001572</v>
+        <v>1.026033623820921</v>
       </c>
       <c r="D22">
-        <v>0.9900313339271978</v>
+        <v>1.029114965147368</v>
       </c>
       <c r="E22">
-        <v>0.9966850941826639</v>
+        <v>1.035525322390714</v>
       </c>
       <c r="F22">
-        <v>1.001390203297032</v>
+        <v>1.044352238570764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042626586363657</v>
+        <v>1.034219807149826</v>
       </c>
       <c r="J22">
-        <v>1.009832141119124</v>
+        <v>1.032938803639867</v>
       </c>
       <c r="K22">
-        <v>1.005802892894643</v>
+        <v>1.032850890874417</v>
       </c>
       <c r="L22">
-        <v>1.012322507278359</v>
+        <v>1.039236276701213</v>
       </c>
       <c r="M22">
-        <v>1.016934170203661</v>
+        <v>1.048029364129342</v>
       </c>
       <c r="N22">
-        <v>1.007234558799502</v>
+        <v>1.014983436468839</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9799659113949829</v>
+        <v>1.026375515595536</v>
       </c>
       <c r="D23">
-        <v>0.991601022918522</v>
+        <v>1.029423231992111</v>
       </c>
       <c r="E23">
-        <v>0.9982283857759346</v>
+        <v>1.035830751903177</v>
       </c>
       <c r="F23">
-        <v>1.003133898003813</v>
+        <v>1.044697078301803</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043171121601636</v>
+        <v>1.034281261907645</v>
       </c>
       <c r="J23">
-        <v>1.010929238214539</v>
+        <v>1.033147404876582</v>
       </c>
       <c r="K23">
-        <v>1.007024004507997</v>
+        <v>1.033089158160907</v>
       </c>
       <c r="L23">
-        <v>1.013521393223578</v>
+        <v>1.039472224158466</v>
       </c>
       <c r="M23">
-        <v>1.018332147773824</v>
+        <v>1.048305260487125</v>
       </c>
       <c r="N23">
-        <v>1.007599431226921</v>
+        <v>1.015052657051247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9871390944309207</v>
+        <v>1.027721974131248</v>
       </c>
       <c r="D24">
-        <v>0.9976489427275125</v>
+        <v>1.030637932449179</v>
       </c>
       <c r="E24">
-        <v>1.004177065970485</v>
+        <v>1.037034469434006</v>
       </c>
       <c r="F24">
-        <v>1.009851615451426</v>
+        <v>1.046055916474391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04523286741909</v>
+        <v>1.034518961129822</v>
       </c>
       <c r="J24">
-        <v>1.015141363321481</v>
+        <v>1.033967721925786</v>
       </c>
       <c r="K24">
-        <v>1.011717471745852</v>
+        <v>1.034026812972631</v>
       </c>
       <c r="L24">
-        <v>1.018131222593143</v>
+        <v>1.04040092487982</v>
       </c>
       <c r="M24">
-        <v>1.023707906603907</v>
+        <v>1.049391257221322</v>
       </c>
       <c r="N24">
-        <v>1.0090003650696</v>
+        <v>1.015324816115499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9951294741208824</v>
+        <v>1.029285383709943</v>
       </c>
       <c r="D25">
-        <v>1.004413350851108</v>
+        <v>1.032049714764619</v>
       </c>
       <c r="E25">
-        <v>1.010835345309081</v>
+        <v>1.038433894419369</v>
       </c>
       <c r="F25">
-        <v>1.017364127867718</v>
+        <v>1.047635279120597</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047463289092184</v>
+        <v>1.034785983423769</v>
       </c>
       <c r="J25">
-        <v>1.01982187005171</v>
+        <v>1.034917697082431</v>
       </c>
       <c r="K25">
-        <v>1.016943539392099</v>
+        <v>1.035114076960747</v>
       </c>
       <c r="L25">
-        <v>1.023267753260788</v>
+        <v>1.041478169063484</v>
       </c>
       <c r="M25">
-        <v>1.029698738197332</v>
+        <v>1.050651072188752</v>
       </c>
       <c r="N25">
-        <v>1.010557125054051</v>
+        <v>1.015639890604769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030533058377069</v>
+        <v>1.001257547477876</v>
       </c>
       <c r="D2">
-        <v>1.033177462681259</v>
+        <v>1.009621278060453</v>
       </c>
       <c r="E2">
-        <v>1.039552098467655</v>
+        <v>1.015965310173152</v>
       </c>
       <c r="F2">
-        <v>1.048896942223943</v>
+        <v>1.023147428036874</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03499182437724</v>
+        <v>1.049118590992318</v>
       </c>
       <c r="J2">
-        <v>1.035673778774571</v>
+        <v>1.023400710464006</v>
       </c>
       <c r="K2">
-        <v>1.035980562479287</v>
+        <v>1.020948180987123</v>
       </c>
       <c r="L2">
-        <v>1.04233696238428</v>
+        <v>1.027206614959895</v>
       </c>
       <c r="M2">
-        <v>1.051655507976379</v>
+        <v>1.034293433082716</v>
       </c>
       <c r="N2">
-        <v>1.015890573910723</v>
+        <v>1.011747415635109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031439371046339</v>
+        <v>1.005575802095399</v>
       </c>
       <c r="D3">
-        <v>1.033997276968464</v>
+        <v>1.013301898151192</v>
       </c>
       <c r="E3">
-        <v>1.040365164007232</v>
+        <v>1.0195929342311</v>
       </c>
       <c r="F3">
-        <v>1.049814137186467</v>
+        <v>1.027234455221101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035137131015873</v>
+        <v>1.050251927691874</v>
       </c>
       <c r="J3">
-        <v>1.036221805680694</v>
+        <v>1.025915610673446</v>
       </c>
       <c r="K3">
-        <v>1.036609273748202</v>
+        <v>1.023767361442723</v>
       </c>
       <c r="L3">
-        <v>1.04296026241975</v>
+        <v>1.02998111035694</v>
       </c>
       <c r="M3">
-        <v>1.052384568828572</v>
+        <v>1.03753033279639</v>
       </c>
       <c r="N3">
-        <v>1.016072226417863</v>
+        <v>1.01258377932722</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032025990599636</v>
+        <v>1.008312553699303</v>
       </c>
       <c r="D4">
-        <v>1.034528191861656</v>
+        <v>1.015639259609889</v>
       </c>
       <c r="E4">
-        <v>1.040891795683374</v>
+        <v>1.021897595042129</v>
       </c>
       <c r="F4">
-        <v>1.050408131394257</v>
+        <v>1.029829834436209</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035229228095921</v>
+        <v>1.050954506773045</v>
       </c>
       <c r="J4">
-        <v>1.036575967501031</v>
+        <v>1.027505987455211</v>
       </c>
       <c r="K4">
-        <v>1.037015884318485</v>
+        <v>1.025552526862666</v>
       </c>
       <c r="L4">
-        <v>1.043363452152952</v>
+        <v>1.031738728075438</v>
       </c>
       <c r="M4">
-        <v>1.052856197274178</v>
+        <v>1.039581091488906</v>
       </c>
       <c r="N4">
-        <v>1.01618959623993</v>
+        <v>1.013112634798283</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032272646116427</v>
+        <v>1.009449791168742</v>
       </c>
       <c r="D5">
-        <v>1.034751492394125</v>
+        <v>1.016611628988698</v>
       </c>
       <c r="E5">
-        <v>1.041113315578746</v>
+        <v>1.022856586969876</v>
       </c>
       <c r="F5">
-        <v>1.050657966569928</v>
+        <v>1.030909530872621</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035267483822197</v>
+        <v>1.051242638831943</v>
       </c>
       <c r="J5">
-        <v>1.036724748730428</v>
+        <v>1.028165988580749</v>
       </c>
       <c r="K5">
-        <v>1.037186772472768</v>
+        <v>1.026293936818568</v>
       </c>
       <c r="L5">
-        <v>1.043532921497644</v>
+        <v>1.032468876194249</v>
       </c>
       <c r="M5">
-        <v>1.053054439135875</v>
+        <v>1.040433068040099</v>
       </c>
       <c r="N5">
-        <v>1.016238897064019</v>
+        <v>1.013332095180221</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032314063013525</v>
+        <v>1.009639971804472</v>
       </c>
       <c r="D6">
-        <v>1.034788991586366</v>
+        <v>1.01677430204004</v>
       </c>
       <c r="E6">
-        <v>1.041150516968472</v>
+        <v>1.023017035269498</v>
       </c>
       <c r="F6">
-        <v>1.050699921987806</v>
+        <v>1.031090158748877</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035273880018659</v>
+        <v>1.051290597112835</v>
       </c>
       <c r="J6">
-        <v>1.036749723365059</v>
+        <v>1.028276308753795</v>
       </c>
       <c r="K6">
-        <v>1.037215462323875</v>
+        <v>1.026417898368023</v>
       </c>
       <c r="L6">
-        <v>1.043561374257221</v>
+        <v>1.032590965328622</v>
       </c>
       <c r="M6">
-        <v>1.053087722974472</v>
+        <v>1.040575531379479</v>
       </c>
       <c r="N6">
-        <v>1.016247172447281</v>
+        <v>1.013368777495598</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032029286264422</v>
+        <v>1.008327801160528</v>
       </c>
       <c r="D7">
-        <v>1.034531175207868</v>
+        <v>1.015652292328592</v>
       </c>
       <c r="E7">
-        <v>1.040894755157938</v>
+        <v>1.021910447571413</v>
       </c>
       <c r="F7">
-        <v>1.050411469234487</v>
+        <v>1.029844305702925</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035229741086705</v>
+        <v>1.050958385053347</v>
       </c>
       <c r="J7">
-        <v>1.036577955950416</v>
+        <v>1.02751483986767</v>
       </c>
       <c r="K7">
-        <v>1.037018167936018</v>
+        <v>1.025562468921854</v>
       </c>
       <c r="L7">
-        <v>1.043365716736384</v>
+        <v>1.031748518409289</v>
       </c>
       <c r="M7">
-        <v>1.052858846314138</v>
+        <v>1.039592515175898</v>
       </c>
       <c r="N7">
-        <v>1.016190255163317</v>
+        <v>1.013115578413206</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030839314129932</v>
+        <v>1.002729101208096</v>
       </c>
       <c r="D8">
-        <v>1.033454430716942</v>
+        <v>1.010874529168914</v>
       </c>
       <c r="E8">
-        <v>1.039826768404568</v>
+        <v>1.017200314662014</v>
       </c>
       <c r="F8">
-        <v>1.049206806500044</v>
+        <v>1.024539078531871</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035041329760232</v>
+        <v>1.049508060104943</v>
       </c>
       <c r="J8">
-        <v>1.035859079188069</v>
+        <v>1.024258433149879</v>
       </c>
       <c r="K8">
-        <v>1.036193080665029</v>
+        <v>1.021909185606548</v>
       </c>
       <c r="L8">
-        <v>1.042547635140754</v>
+        <v>1.028152230184933</v>
       </c>
       <c r="M8">
-        <v>1.051901922085161</v>
+        <v>1.035396603124897</v>
       </c>
       <c r="N8">
-        <v>1.015951999500154</v>
+        <v>1.012032671157192</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028743819555473</v>
+        <v>0.992401617988082</v>
       </c>
       <c r="D9">
-        <v>1.031560506066065</v>
+        <v>1.002100736179324</v>
       </c>
       <c r="E9">
-        <v>1.037948917060328</v>
+        <v>1.008558413877987</v>
       </c>
       <c r="F9">
-        <v>1.047087993282998</v>
+        <v>1.014795861010148</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034694608406145</v>
+        <v>1.04671041494201</v>
       </c>
       <c r="J9">
-        <v>1.034588941468503</v>
+        <v>1.018225577776955</v>
       </c>
       <c r="K9">
-        <v>1.034737634382217</v>
+        <v>1.015159822104794</v>
       </c>
       <c r="L9">
-        <v>1.041105150299586</v>
+        <v>1.021514146264091</v>
       </c>
       <c r="M9">
-        <v>1.050214819844749</v>
+        <v>1.027653361607215</v>
       </c>
       <c r="N9">
-        <v>1.015530866348143</v>
+        <v>1.010026192391165</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027347823444923</v>
+        <v>0.9851735683963897</v>
       </c>
       <c r="D10">
-        <v>1.030300286966599</v>
+        <v>0.9959894487566329</v>
       </c>
       <c r="E10">
-        <v>1.036699844863769</v>
+        <v>1.002544405113509</v>
       </c>
       <c r="F10">
-        <v>1.045678201370149</v>
+        <v>1.008008430626535</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034453612145942</v>
+        <v>1.044673121908635</v>
       </c>
       <c r="J10">
-        <v>1.033739970713905</v>
+        <v>1.013988037217072</v>
       </c>
       <c r="K10">
-        <v>1.0337663743173</v>
+        <v>1.010431494478591</v>
       </c>
       <c r="L10">
-        <v>1.040142944837058</v>
+        <v>1.016867871005319</v>
       </c>
       <c r="M10">
-        <v>1.049089573552109</v>
+        <v>1.022234580334338</v>
       </c>
       <c r="N10">
-        <v>1.015249262316032</v>
+        <v>1.008616766190506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026743592553172</v>
+        <v>0.9819545043509805</v>
       </c>
       <c r="D11">
-        <v>1.029755184755504</v>
+        <v>0.9932753506830407</v>
       </c>
       <c r="E11">
-        <v>1.036159671797509</v>
+        <v>0.9998748435636159</v>
       </c>
       <c r="F11">
-        <v>1.045068416853244</v>
+        <v>1.004993753338963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034346931551301</v>
+        <v>1.043747803079581</v>
       </c>
       <c r="J11">
-        <v>1.033371845387852</v>
+        <v>1.012097755097076</v>
       </c>
       <c r="K11">
-        <v>1.033345594321972</v>
+        <v>1.008325208141528</v>
       </c>
       <c r="L11">
-        <v>1.039726183523834</v>
+        <v>1.014799120537675</v>
       </c>
       <c r="M11">
-        <v>1.04860222465575</v>
+        <v>1.019822105274997</v>
       </c>
       <c r="N11">
-        <v>1.015127128119609</v>
+        <v>1.007988065601864</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026519192085759</v>
+        <v>0.9807446650931784</v>
       </c>
       <c r="D12">
-        <v>1.029552798223707</v>
+        <v>0.9922564966427521</v>
       </c>
       <c r="E12">
-        <v>1.035959131574905</v>
+        <v>0.9988729132986689</v>
       </c>
       <c r="F12">
-        <v>1.044842017056614</v>
+        <v>1.003862012328223</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034306956643097</v>
+        <v>1.043397402010093</v>
       </c>
       <c r="J12">
-        <v>1.033235030836616</v>
+        <v>1.011386908269016</v>
       </c>
       <c r="K12">
-        <v>1.033189266289808</v>
+        <v>1.007533568978719</v>
       </c>
       <c r="L12">
-        <v>1.03957136291829</v>
+        <v>1.014021738413573</v>
       </c>
       <c r="M12">
-        <v>1.048421186363309</v>
+        <v>1.018915594429789</v>
       </c>
       <c r="N12">
-        <v>1.015081732693887</v>
+        <v>1.007751645627475</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026567325021118</v>
+        <v>0.9810048315557347</v>
       </c>
       <c r="D13">
-        <v>1.029596206785262</v>
+        <v>0.9924755380049779</v>
       </c>
       <c r="E13">
-        <v>1.036002143399561</v>
+        <v>0.9990883069077243</v>
       </c>
       <c r="F13">
-        <v>1.044890575972989</v>
+        <v>1.00410532547776</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034315547177522</v>
+        <v>1.043472870831832</v>
       </c>
       <c r="J13">
-        <v>1.033264381463915</v>
+        <v>1.011539788090459</v>
       </c>
       <c r="K13">
-        <v>1.033222800595355</v>
+        <v>1.007703804890895</v>
       </c>
       <c r="L13">
-        <v>1.039604573210267</v>
+        <v>1.014188901687742</v>
       </c>
       <c r="M13">
-        <v>1.0484600203594</v>
+        <v>1.019110523199309</v>
       </c>
       <c r="N13">
-        <v>1.015091471488917</v>
+        <v>1.007802491539475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026725042763662</v>
+        <v>0.9818547913827796</v>
       </c>
       <c r="D14">
-        <v>1.02973845360403</v>
+        <v>0.9931913536485325</v>
       </c>
       <c r="E14">
-        <v>1.036143092948199</v>
+        <v>0.99979223757248</v>
       </c>
       <c r="F14">
-        <v>1.045049700500018</v>
+        <v>1.004900450692884</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034343634328004</v>
+        <v>1.043718976704207</v>
       </c>
       <c r="J14">
-        <v>1.033360537807332</v>
+        <v>1.012039176337302</v>
       </c>
       <c r="K14">
-        <v>1.033332672836245</v>
+        <v>1.008259962666977</v>
       </c>
       <c r="L14">
-        <v>1.039713386342463</v>
+        <v>1.014735047058612</v>
       </c>
       <c r="M14">
-        <v>1.04858726027694</v>
+        <v>1.019747388049222</v>
       </c>
       <c r="N14">
-        <v>1.015123376316103</v>
+        <v>1.007968582823935</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026822222908566</v>
+        <v>0.9823765840973468</v>
       </c>
       <c r="D15">
-        <v>1.029826108359675</v>
+        <v>0.9936309550131857</v>
       </c>
       <c r="E15">
-        <v>1.036229950454602</v>
+        <v>1.000224567254942</v>
       </c>
       <c r="F15">
-        <v>1.045147755842914</v>
+        <v>1.005388751149487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034360893525722</v>
+        <v>1.043869716705034</v>
       </c>
       <c r="J15">
-        <v>1.033419772808767</v>
+        <v>1.01234569943618</v>
       </c>
       <c r="K15">
-        <v>1.033400364595992</v>
+        <v>1.008601388241525</v>
       </c>
       <c r="L15">
-        <v>1.039780427499164</v>
+        <v>1.015070345748164</v>
       </c>
       <c r="M15">
-        <v>1.048665655012111</v>
+        <v>1.020138387204507</v>
       </c>
       <c r="N15">
-        <v>1.015143030055351</v>
+        <v>1.00807052991537</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027387929501834</v>
+        <v>0.9853852656050043</v>
       </c>
       <c r="D16">
-        <v>1.030336475966487</v>
+        <v>0.9961681009136448</v>
       </c>
       <c r="E16">
-        <v>1.036735708892294</v>
+        <v>1.002720153916094</v>
       </c>
       <c r="F16">
-        <v>1.045718684889322</v>
+        <v>1.008206861271624</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034460643206346</v>
+        <v>1.04473360518219</v>
       </c>
       <c r="J16">
-        <v>1.033764391207674</v>
+        <v>1.014112289225931</v>
       </c>
       <c r="K16">
-        <v>1.033794295604828</v>
+        <v>1.010570005554886</v>
       </c>
       <c r="L16">
-        <v>1.040170601481249</v>
+        <v>1.017003934320217</v>
       </c>
       <c r="M16">
-        <v>1.049121915089373</v>
+        <v>1.022393255446705</v>
       </c>
       <c r="N16">
-        <v>1.01525736382468</v>
+        <v>1.008658092482051</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027742848529539</v>
+        <v>0.9872481362805733</v>
       </c>
       <c r="D17">
-        <v>1.03065677262671</v>
+        <v>0.9977410579386466</v>
       </c>
       <c r="E17">
-        <v>1.037053141782681</v>
+        <v>1.00426770070872</v>
       </c>
       <c r="F17">
-        <v>1.046076992585143</v>
+        <v>1.009953924981966</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034522590880178</v>
+        <v>1.045263799593638</v>
       </c>
       <c r="J17">
-        <v>1.033980423960027</v>
+        <v>1.015205326038169</v>
       </c>
       <c r="K17">
-        <v>1.034041340567994</v>
+        <v>1.011788810860091</v>
       </c>
       <c r="L17">
-        <v>1.040415315984741</v>
+        <v>1.018201313174544</v>
       </c>
       <c r="M17">
-        <v>1.049408086488185</v>
+        <v>1.02378964811935</v>
       </c>
       <c r="N17">
-        <v>1.015329029683874</v>
+        <v>1.009021639324901</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027949890328177</v>
+        <v>0.9883261553249584</v>
       </c>
       <c r="D18">
-        <v>1.030843652210705</v>
+        <v>0.9986520255794552</v>
       </c>
       <c r="E18">
-        <v>1.03723836086353</v>
+        <v>1.005164078624943</v>
       </c>
       <c r="F18">
-        <v>1.046286051436668</v>
+        <v>1.010965697723536</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034558499280747</v>
+        <v>1.045568904063535</v>
       </c>
       <c r="J18">
-        <v>1.034106382414192</v>
+        <v>1.015837558317528</v>
       </c>
       <c r="K18">
-        <v>1.034185416607315</v>
+        <v>1.012494067454524</v>
       </c>
       <c r="L18">
-        <v>1.0405580421607</v>
+        <v>1.01889426476088</v>
       </c>
       <c r="M18">
-        <v>1.049574994740818</v>
+        <v>1.024597795917386</v>
       </c>
       <c r="N18">
-        <v>1.015370812058325</v>
+        <v>1.009231922774321</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028020490191413</v>
+        <v>0.9886923008778447</v>
       </c>
       <c r="D19">
-        <v>1.030907382768284</v>
+        <v>0.9989615527724278</v>
       </c>
       <c r="E19">
-        <v>1.037301526908825</v>
+        <v>1.005468669857644</v>
       </c>
       <c r="F19">
-        <v>1.046357345919299</v>
+        <v>1.011309471842393</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034570704994534</v>
+        <v>1.045672239284093</v>
       </c>
       <c r="J19">
-        <v>1.034149322514861</v>
+        <v>1.016052242611093</v>
       </c>
       <c r="K19">
-        <v>1.034234539198363</v>
+        <v>1.012733595455639</v>
       </c>
       <c r="L19">
-        <v>1.040606706087188</v>
+        <v>1.019129629373209</v>
       </c>
       <c r="M19">
-        <v>1.049631904290478</v>
+        <v>1.024872291318917</v>
       </c>
       <c r="N19">
-        <v>1.015385055515841</v>
+        <v>1.009303327945807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027704766634964</v>
+        <v>0.9870491585559417</v>
       </c>
       <c r="D20">
-        <v>1.030622402027748</v>
+        <v>0.9975729717115674</v>
       </c>
       <c r="E20">
-        <v>1.037019077416551</v>
+        <v>1.004102316672931</v>
       </c>
       <c r="F20">
-        <v>1.04603854292636</v>
+        <v>1.009767236626411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034515967710339</v>
+        <v>1.04520734538732</v>
       </c>
       <c r="J20">
-        <v>1.033957250833392</v>
+        <v>1.01508860628393</v>
       </c>
       <c r="K20">
-        <v>1.03401483715647</v>
+        <v>1.011658632158746</v>
       </c>
       <c r="L20">
-        <v>1.040389061631661</v>
+        <v>1.018073413307736</v>
       </c>
       <c r="M20">
-        <v>1.049377384101008</v>
+        <v>1.023640487990845</v>
       </c>
       <c r="N20">
-        <v>1.01532134258925</v>
+        <v>1.00898281787541</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02667859776802</v>
+        <v>0.9816048956724346</v>
       </c>
       <c r="D21">
-        <v>1.029696563001414</v>
+        <v>0.9929808639826151</v>
       </c>
       <c r="E21">
-        <v>1.036101583933947</v>
+        <v>0.999585237067679</v>
       </c>
       <c r="F21">
-        <v>1.045002839484133</v>
+        <v>1.004666641073571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034335372990238</v>
+        <v>1.043646691294404</v>
       </c>
       <c r="J21">
-        <v>1.033332224262095</v>
+        <v>1.011892362690952</v>
       </c>
       <c r="K21">
-        <v>1.033300319063144</v>
+        <v>1.008096447520524</v>
       </c>
       <c r="L21">
-        <v>1.039681344044519</v>
+        <v>1.014574471522906</v>
       </c>
       <c r="M21">
-        <v>1.048549791702239</v>
+        <v>1.019560138599009</v>
       </c>
       <c r="N21">
-        <v>1.015113981946873</v>
+        <v>1.007919753990786</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026033623820921</v>
+        <v>0.9780996919001577</v>
       </c>
       <c r="D22">
-        <v>1.029114965147368</v>
+        <v>0.9900313339271987</v>
       </c>
       <c r="E22">
-        <v>1.035525322390714</v>
+        <v>0.9966850941826646</v>
       </c>
       <c r="F22">
-        <v>1.044352238570764</v>
+        <v>1.001390203297032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034219807149826</v>
+        <v>1.042626586363657</v>
       </c>
       <c r="J22">
-        <v>1.032938803639867</v>
+        <v>1.009832141119125</v>
       </c>
       <c r="K22">
-        <v>1.032850890874417</v>
+        <v>1.005802892894643</v>
       </c>
       <c r="L22">
-        <v>1.039236276701213</v>
+        <v>1.012322507278359</v>
       </c>
       <c r="M22">
-        <v>1.048029364129342</v>
+        <v>1.016934170203662</v>
       </c>
       <c r="N22">
-        <v>1.014983436468839</v>
+        <v>1.007234558799503</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026375515595536</v>
+        <v>0.9799659113949822</v>
       </c>
       <c r="D23">
-        <v>1.029423231992111</v>
+        <v>0.9916010229185208</v>
       </c>
       <c r="E23">
-        <v>1.035830751903177</v>
+        <v>0.998228385775934</v>
       </c>
       <c r="F23">
-        <v>1.044697078301803</v>
+        <v>1.003133898003812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034281261907645</v>
+        <v>1.043171121601636</v>
       </c>
       <c r="J23">
-        <v>1.033147404876582</v>
+        <v>1.010929238214538</v>
       </c>
       <c r="K23">
-        <v>1.033089158160907</v>
+        <v>1.007024004507995</v>
       </c>
       <c r="L23">
-        <v>1.039472224158466</v>
+        <v>1.013521393223577</v>
       </c>
       <c r="M23">
-        <v>1.048305260487125</v>
+        <v>1.018332147773823</v>
       </c>
       <c r="N23">
-        <v>1.015052657051247</v>
+        <v>1.00759943122692</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027721974131248</v>
+        <v>0.9871390944309207</v>
       </c>
       <c r="D24">
-        <v>1.030637932449179</v>
+        <v>0.9976489427275126</v>
       </c>
       <c r="E24">
-        <v>1.037034469434006</v>
+        <v>1.004177065970485</v>
       </c>
       <c r="F24">
-        <v>1.046055916474391</v>
+        <v>1.009851615451427</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034518961129822</v>
+        <v>1.045232867419089</v>
       </c>
       <c r="J24">
-        <v>1.033967721925786</v>
+        <v>1.015141363321481</v>
       </c>
       <c r="K24">
-        <v>1.034026812972631</v>
+        <v>1.011717471745853</v>
       </c>
       <c r="L24">
-        <v>1.04040092487982</v>
+        <v>1.018131222593143</v>
       </c>
       <c r="M24">
-        <v>1.049391257221322</v>
+        <v>1.023707906603907</v>
       </c>
       <c r="N24">
-        <v>1.015324816115499</v>
+        <v>1.0090003650696</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029285383709943</v>
+        <v>0.9951294741208819</v>
       </c>
       <c r="D25">
-        <v>1.032049714764619</v>
+        <v>1.004413350851108</v>
       </c>
       <c r="E25">
-        <v>1.038433894419369</v>
+        <v>1.010835345309081</v>
       </c>
       <c r="F25">
-        <v>1.047635279120597</v>
+        <v>1.017364127867717</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034785983423769</v>
+        <v>1.047463289092184</v>
       </c>
       <c r="J25">
-        <v>1.034917697082431</v>
+        <v>1.01982187005171</v>
       </c>
       <c r="K25">
-        <v>1.035114076960747</v>
+        <v>1.016943539392099</v>
       </c>
       <c r="L25">
-        <v>1.041478169063484</v>
+        <v>1.023267753260788</v>
       </c>
       <c r="M25">
-        <v>1.050651072188752</v>
+        <v>1.029698738197332</v>
       </c>
       <c r="N25">
-        <v>1.015639890604769</v>
+        <v>1.010557125054051</v>
       </c>
     </row>
   </sheetData>
